--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C089898-C624-49F0-BFAD-8D23BA59580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F751E-3DD0-4B81-AD81-37BE4A94105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="756" yWindow="768" windowWidth="21624" windowHeight="11244" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -908,6 +908,29 @@
   </si>
   <si>
     <t>additional text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time spent:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6h</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1213,16 +1236,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,9 +1540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1559,97 +1584,79 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="37"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="18" t="s">
+      <c r="A8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="17" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
+      <c r="F10" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -1658,21 +1665,21 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>61</v>
+      <c r="A11" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="33"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -1680,22 +1687,22 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="33"/>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -1703,20 +1710,22 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>64</v>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -1725,21 +1734,19 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>65</v>
+      <c r="A14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -1749,20 +1756,20 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
+      <c r="F15" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -1772,15 +1779,15 @@
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="33"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1790,81 +1797,79 @@
       <c r="G16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="6" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15"/>
       <c r="H19" s="16" t="s">
         <v>4</v>
       </c>
@@ -1872,17 +1877,19 @@
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>21</v>
@@ -1893,19 +1900,42 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="19"/>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F751E-3DD0-4B81-AD81-37BE4A94105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2314EEC2-CBF9-4CA3-86FA-E1077D53DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="768" windowWidth="21624" windowHeight="11244" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOC" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,16 +969,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -986,7 +976,6 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
@@ -1141,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1221,44 +1210,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,7 +1529,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,39 +1582,39 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
@@ -1640,7 +1626,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1649,7 +1635,7 @@
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1665,7 +1651,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1674,7 +1660,7 @@
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1674,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1697,7 +1683,7 @@
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1706,7 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1741,7 +1727,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="9" t="s">
         <v>60</v>
       </c>
@@ -1764,7 +1750,7 @@
       <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1773,7 @@
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1796,7 @@
       <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1812,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1835,7 +1821,7 @@
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1835,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1876,7 +1862,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1885,7 +1871,7 @@
       <c r="C20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1901,7 +1887,7 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1910,7 +1896,7 @@
       <c r="C21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1928,14 +1914,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:D18"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D10:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2314EEC2-CBF9-4CA3-86FA-E1077D53DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F5961F-03F3-4D70-BFFE-721F2F39421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -56,15 +56,9 @@
     <t>Scopes</t>
   </si>
   <si>
-    <t>dropped capital letter</t>
-  </si>
-  <si>
     <t>legend</t>
   </si>
   <si>
-    <t>related components (CC)</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -101,6 +95,437 @@
     <t>Figure</t>
   </si>
   <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>line of text</t>
+  </si>
+  <si>
+    <t>minimal element of text</t>
+  </si>
+  <si>
+    <t>black pixels that touch each other</t>
+  </si>
+  <si>
+    <t>bigger line than the other</t>
+  </si>
+  <si>
+    <t>textual content block at the bottom of the page</t>
+  </si>
+  <si>
+    <t>text above or under a image or a table</t>
+  </si>
+  <si>
+    <t>large special character drawn at the beginning of a paragraph</t>
+  </si>
+  <si>
+    <t>large special image drawn to distinguish a page</t>
+  </si>
+  <si>
+    <t>image of any photograph or not-textual writing/drawing</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Above or under </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Margin of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Demarcation in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arbitrarily positioned in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anywhere in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At the bottom of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Above </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in another </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footnote</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Group of </t>
     </r>
@@ -113,68 +538,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>related components</t>
-    </r>
-  </si>
-  <si>
-    <t>drawing</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>annotation</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>line of text</t>
-  </si>
-  <si>
-    <t>word of text with(out) dropped capital letter</t>
-  </si>
-  <si>
-    <t>minimal element of text</t>
-  </si>
-  <si>
-    <t>black pixels that touch each other</t>
-  </si>
-  <si>
-    <t>bigger line than the other</t>
-  </si>
-  <si>
-    <t>textual content block at the bottom of the page</t>
-  </si>
-  <si>
-    <t>text above or under a image or a table</t>
-  </si>
-  <si>
-    <t>large special character drawn at the beginning of a paragraph</t>
-  </si>
-  <si>
-    <t>large special image drawn to distinguish a page</t>
-  </si>
-  <si>
-    <t>image of any photograph or not-textual writing/drawing</t>
-  </si>
-  <si>
-    <t>Anywhere</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Above or under </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image</t>
+      <t>word</t>
     </r>
     <r>
       <rPr>
@@ -195,70 +559,114 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Margin of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Start of </t>
+      <t>annotation</t>
+    </r>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Théo Boisseau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creation date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 06.10.2022</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary table of the different EOCs that may be searched for</t>
+  </si>
+  <si>
+    <t>Extractors</t>
+  </si>
+  <si>
+    <t>Use cases:</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of adjacent pixels |to consider as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of pixels |to consider as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of </t>
     </r>
     <r>
       <rPr>
@@ -279,113 +687,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Demarcation in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arbitrarily positioned in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anywhere in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
+      <t xml:space="preserve"> |to consider as</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of </t>
     </r>
     <r>
       <rPr>
@@ -398,161 +716,31 @@
       </rPr>
       <t>line</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>word</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">At the bottom of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Above </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in another </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>footnote</t>
-    </r>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |to consider as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of handwritten </t>
     </r>
     <r>
       <rPr>
@@ -573,65 +761,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dropped capital letter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>word</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>annotation</t>
-    </r>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t>banner  (not for retro)</t>
-  </si>
-  <si>
-    <t>Image (No pictures but drawings/prints/engravings)</t>
+      <t xml:space="preserve"> |to consider as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+  </si>
+  <si>
+    <t>decoration</t>
+  </si>
+  <si>
+    <t>additional text</t>
   </si>
   <si>
     <r>
@@ -643,18 +791,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Author:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Théo Boisseau</t>
-    </r>
+      <t>Time spent:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6h</t>
+    </r>
+  </si>
+  <si>
+    <t>word of text with(out) initial capital</t>
+  </si>
+  <si>
+    <t>Group of character | initial capital</t>
+  </si>
+  <si>
+    <t>initial capital</t>
   </si>
   <si>
     <r>
@@ -666,230 +823,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Creation date:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 06.10.2022</t>
-    </r>
-  </si>
-  <si>
-    <t>Summary table of the different EOCs that may be searched for</t>
-  </si>
-  <si>
-    <t>Extractors</t>
-  </si>
-  <si>
-    <t>Use cases:</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of adjacent pixels |to consider as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of pixels |to consider as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |to consider as</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |to consider as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of handwritten </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |to consider as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>related components</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | can be considered as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Version:</t>
     </r>
     <r>
@@ -900,37 +833,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2.2</t>
-    </r>
-  </si>
-  <si>
-    <t>decoration</t>
-  </si>
-  <si>
-    <t>additional text</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time spent:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6h</t>
-    </r>
+      <t xml:space="preserve"> 2.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>banner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (not for retro)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>illustrations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (No photographs but drawings/engravings)</t>
+    </r>
+  </si>
+  <si>
+    <t>Group of connected components</t>
+  </si>
+  <si>
+    <t>connected components (CC)</t>
+  </si>
+  <si>
+    <t>Group of connected components | can be considered as character</t>
   </si>
 </sst>
 </file>
@@ -1210,6 +1153,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,18 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,9 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1544,17 +1485,17 @@
     <col min="10" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
@@ -1562,87 +1503,87 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
+      <c r="G8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -1651,21 +1592,21 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>62</v>
+      <c r="A11" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -1674,21 +1615,21 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>61</v>
+      <c r="A12" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -1698,20 +1639,20 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="34"/>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -1721,18 +1662,18 @@
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -1745,17 +1686,17 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="34"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -1765,20 +1706,20 @@
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="30"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="34"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -1788,45 +1729,43 @@
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="34"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="H17" s="16"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>24</v>
+      <c r="A18" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="38"/>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1835,23 +1774,23 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>6</v>
+      <c r="A19" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -1862,23 +1801,23 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>52</v>
+      <c r="A20" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16" t="s">
@@ -1887,21 +1826,21 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>53</v>
+      <c r="A21" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="34"/>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16" t="s">

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480D146-699A-4F40-BEB3-95CBCD808A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB01A68-2B2C-40F0-B137-537E82497DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Description</t>
   </si>
@@ -59,15 +59,6 @@
     <t>legend</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -549,9 +540,6 @@
   </si>
   <si>
     <t>Summary table of the different EOCs that may be searched for</t>
-  </si>
-  <si>
-    <t>Extractors</t>
   </si>
   <si>
     <t>Use cases:</t>
@@ -854,6 +842,38 @@
     </r>
   </si>
   <si>
+    <t>illustration</t>
+  </si>
+  <si>
+    <t>page frames</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">On the sides of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+  </si>
+  <si>
+    <t>Wooden frame on the sides of the page</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -873,11 +893,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3.0</t>
-    </r>
-  </si>
-  <si>
-    <t>illustration</t>
+      <t xml:space="preserve"> 3.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Handwritten annotation</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Extractors of</t>
+  </si>
+  <si>
+    <t>Decorations</t>
+  </si>
+  <si>
+    <t>Text-Lines</t>
   </si>
 </sst>
 </file>
@@ -917,14 +949,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1077,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1121,86 +1153,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,11 +1523,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1496,460 +1535,493 @@
     <col min="4" max="4" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="10" width="12.77734375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="D6" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>67</v>
+      <c r="F9" s="38"/>
+      <c r="G9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
+      <c r="H10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>52</v>
+      <c r="H11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="34"/>
+        <v>57</v>
+      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>51</v>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="42"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>65</v>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="D14" s="42"/>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="34"/>
+        <v>74</v>
+      </c>
+      <c r="D15" s="42"/>
       <c r="E15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="42"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="D17" s="42"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="42"/>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15" t="s">
+      <c r="C22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="34"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="42"/>
       <c r="E23" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="D24" s="42"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D10:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB01A68-2B2C-40F0-B137-537E82497DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132261A9-2567-46D0-B1F7-3CF74CA4EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -874,6 +874,24 @@
     <t>Wooden frame on the sides of the page</t>
   </si>
   <si>
+    <t>Handwritten annotation</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Extractors of</t>
+  </si>
+  <si>
+    <t>Text-Lines</t>
+  </si>
+  <si>
+    <t>Ornaments</t>
+  </si>
+  <si>
+    <t>Figures</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -893,23 +911,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3.1</t>
-    </r>
-  </si>
-  <si>
-    <t>Handwritten annotation</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>Extractors of</t>
-  </si>
-  <si>
-    <t>Decorations</t>
-  </si>
-  <si>
-    <t>Text-Lines</t>
+      <t xml:space="preserve"> 3.2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -947,22 +950,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,12 +984,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1109,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1174,9 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1186,9 +1180,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1216,31 +1207,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1523,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1535,99 +1538,103 @@
     <col min="4" max="4" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.77734375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="11" width="12.77734375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="G8" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>63</v>
       </c>
@@ -1637,7 +1644,7 @@
       <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1646,16 +1653,19 @@
       <c r="F10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1665,23 +1675,24 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
@@ -1691,22 +1702,23 @@
       <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1715,21 +1727,22 @@
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>61</v>
       </c>
@@ -1739,19 +1752,20 @@
       <c r="C14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -1761,19 +1775,20 @@
       <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>2</v>
       </c>
@@ -1783,19 +1798,20 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
@@ -1805,19 +1821,20 @@
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
@@ -1827,20 +1844,21 @@
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1849,28 +1867,29 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1882,28 +1901,29 @@
       <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1912,61 +1932,64 @@
       <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1975,20 +1998,21 @@
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="G24" s="31"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1997,17 +2021,18 @@
       <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="17"/>
@@ -2015,7 +2040,7 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132261A9-2567-46D0-B1F7-3CF74CA4EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B04D0-103D-4CCA-B865-C0201AFF90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>Description</t>
   </si>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>banner</t>
-  </si>
-  <si>
-    <t>florets / lamp-ends</t>
   </si>
   <si>
     <r>
@@ -911,7 +908,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3.2</t>
+      <t xml:space="preserve"> 3.3</t>
     </r>
   </si>
 </sst>
@@ -919,7 +916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +961,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1106,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1147,18 +1153,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1183,10 +1183,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1210,6 +1210,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,18 +1247,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" style="11" bestFit="1" customWidth="1"/>
@@ -1543,7 +1546,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1554,7 +1557,7 @@
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1562,7 +1565,7 @@
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1570,103 +1573,103 @@
       <c r="A5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="33" t="s">
+      <c r="H9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="J9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>81</v>
+      <c r="K9" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1675,25 +1678,25 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1702,23 +1705,23 @@
       <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1727,69 +1730,69 @@
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="36"/>
+        <v>72</v>
+      </c>
+      <c r="D14" s="39"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="D15" s="39"/>
       <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1798,21 +1801,21 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1821,44 +1824,44 @@
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1867,29 +1870,29 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="30" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1901,29 +1904,29 @@
       <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1932,110 +1935,109 @@
       <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>77</v>
+      <c r="A22" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="36"/>
+      <c r="C22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="31" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="30"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>71</v>
+      <c r="A25" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="17"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Deliverables/20221012SpecsOutputs.xlsx
+++ b/Deliverables/20221012SpecsOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B04D0-103D-4CCA-B865-C0201AFF90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0F7EC-E91C-4617-8892-1B9723493C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
